--- a/examples/USA OGD/gun offenders/counters.xlsx
+++ b/examples/USA OGD/gun offenders/counters.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/USA OGD/gun offenders/counters.xlsx
+++ b/examples/USA OGD/gun offenders/counters.xlsx
@@ -382,7 +382,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Error: Value 'f??' does not match regex '^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
+          <t>Error: Value 'f??' does not match regex #'^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
         </is>
       </c>
     </row>
@@ -399,7 +399,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Error: Value 'f??' does not match regex '^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
+          <t>Error: Value 'f??' does not match regex #'^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
         </is>
       </c>
     </row>
@@ -416,7 +416,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Error: Value 'f??' does not match regex '^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
+          <t>Error: Value 'f??' does not match regex #'^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
         </is>
       </c>
     </row>
@@ -433,7 +433,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Error: Value 'f??' does not match regex '^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
+          <t>Error: Value 'f??' does not match regex #'^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Error: Value 'f??' does not match regex '^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
+          <t>Error: Value 'f??' does not match regex #'^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Error: Value 'f??' does not match regex '^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
+          <t>Error: Value 'f??' does not match regex #'^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Error: Value 'f??' does not match regex '^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
+          <t>Error: Value 'f??' does not match regex #'^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Error: Value 'f??' does not match regex '^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
+          <t>Error: Value 'f??' does not match regex #'^[0-9]{1,3}[A-Z]{1}[0-9]{1,5}'</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Format Consistency</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
         </is>
       </c>
     </row>
@@ -615,12 +615,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Format Consistency</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Error: Value '12/27/2011' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
         </is>
       </c>
     </row>
@@ -632,12 +632,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Format Consistency</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Error: Value '02/18/2011' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
         </is>
       </c>
     </row>
@@ -649,12 +649,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Format Consistency</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Error: Value '07/26/2010' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Format Consistency</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -717,12 +717,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Format Consistency</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Format Consistency</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Error: Value '10/23/2012' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Format Consistency</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Error: Value '04/13/2012' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Value '' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -802,12 +802,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '12/27/2011' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Value '02/18/2011' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Error: Value '10/24/2012' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Value '07/26/2010' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Value '' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -887,12 +887,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '10/23/2012' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Value '04/13/2012' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Value '' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Error: Value '03/28/2012' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Value '10/24/2012' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -972,12 +972,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Value '' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Value '03/28/2012' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -1040,12 +1040,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Value '' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Error: Value '07/18/2012' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Value '' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -1091,12 +1091,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Format Consistency</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Error: Mandatory field is BLANK or NULL. A value is required.</t>
+          <t>Error: Value '07/18/2012' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Error: Value '' does not match regex '^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
+          <t>Error: Value '' does not match regex #'^(((0?[1-9]|[12]\d|3[01])[\.\-\/](0?[13578]|1[02])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|[12]\d|30)[\.\-\/](0?[13456789]|1[012])[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|((0?[1-9]|1\d|2[0-8])[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?\d{2}|\d))|(29[\.\-\/]0?2[\.\-\/]((1[6-9]|[2-9]\d)?(0[48]|[2468][048]|[13579][26])|((16|[2468][048]|[3579][26])00)|00|[048])))$'</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Meta Compliance (enumeration)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Meta Compliance (max value)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
